--- a/www/terminologies/ValueSet-jdv-contre-indication-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-contre-indication-cisis.xlsx
@@ -38,19 +38,19 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152059</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>JdvContre_indicationCisis</t>
+    <t>JdvContrindicationCisis</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>JDV Contre-indication CISIS</t>
+    <t>JDV Contrindication CISIS</t>
   </si>
   <si>
     <t>Status</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:20:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-contre-indication-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-contre-indication-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152059</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:20:59+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,7 +119,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cim-10</t>
+    <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
     <t>MED-1105</t>
@@ -242,7 +242,7 @@
     <t>1260078007</t>
   </si>
   <si>
-    <t>Allaitement</t>
+    <t>allaitement maternel</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
